--- a/doc/config.xlsx
+++ b/doc/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cchyun/Dev/Research/Dnn/chatbotton/tourbot/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC5266A-8BBA-6547-8888-079CF3515C6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC6190F-576B-1243-A6FB-6B8559099082}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="19780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="intent" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="89">
   <si>
     <t>대상</t>
   </si>
@@ -282,6 +282,18 @@
   </si>
   <si>
     <t>무용</t>
+  </si>
+  <si>
+    <t>검색해줘</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>하</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -400,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -417,9 +429,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -692,13 +705,13 @@
       <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
@@ -844,10 +857,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1072,34 +1085,38 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="13" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A10" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="9"/>
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
+      <c r="J10" s="9" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="11" spans="1:10" s="13" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16" t="s">
-        <v>78</v>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15" t="s">
+        <v>77</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -1109,15 +1126,15 @@
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" s="13" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16" t="s">
-        <v>79</v>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15" t="s">
+        <v>78</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -1127,15 +1144,15 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" s="13" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16" t="s">
-        <v>80</v>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
@@ -1144,16 +1161,16 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A14" s="16" t="s">
+    <row r="14" spans="1:10" s="13" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A14" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16" t="s">
-        <v>81</v>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15" t="s">
+        <v>80</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -1163,15 +1180,15 @@
       <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16" t="s">
-        <v>82</v>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -1181,15 +1198,15 @@
       <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16" t="s">
-        <v>83</v>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -1199,15 +1216,15 @@
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16" t="s">
-        <v>84</v>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15" t="s">
+        <v>83</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -1217,15 +1234,15 @@
       <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16" t="s">
-        <v>85</v>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15" t="s">
+        <v>84</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
@@ -1235,10 +1252,16 @@
       <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="A19" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15" t="s">
+        <v>85</v>
+      </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -1366,6 +1389,18 @@
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
     </row>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
